--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.47</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,438 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1636,4 +1637,248 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1881,4 +1882,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1890,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,17 +1902,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1921,14 +1942,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1937,14 +1980,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.67</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1953,14 +2018,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.19</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1969,13 +2056,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2175,7 +2176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,17 +2187,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2206,14 +2227,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.05</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2222,14 +2265,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2238,14 +2303,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.67</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2254,14 +2341,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.19</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2270,13 +2379,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2612,7 +2613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2623,17 +2624,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2664,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.36</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2659,14 +2702,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.05</v>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2675,14 +2740,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2691,14 +2778,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.67</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2707,14 +2816,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.19</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2723,13 +2854,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,281 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4220</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2820</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1250</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+      <c r="D5" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -741,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -792,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>65.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8081</t>
+          <t>2.7527</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -830,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8081</t>
+          <t>0.5313</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -868,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6768</t>
+          <t>0.4655</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -906,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4451</t>
+          <t>0.4226</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -944,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2036</t>
+          <t>0.4226</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -982,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>013992</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>中欧港股通精选一年持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1561</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1020,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0666</t>
+          <t>0.1929</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1058,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1096,32 +960,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1134,74 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1062,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1276,26 +1102,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>59.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8441</t>
+          <t>2.6598</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1304,36 +1130,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>82.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8198</t>
+          <t>0.5144</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1342,36 +1168,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.43</t>
+          <t>82.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4267</t>
+          <t>0.5144</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1390,26 +1216,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.3427</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1418,36 +1244,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>84.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.2698</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1456,36 +1282,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010204</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银港股通优势成长股票</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.30</t>
+          <t>79.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1536</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1494,36 +1320,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1532,36 +1358,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1570,36 +1396,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>011647</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>博时港股通红利精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1608,34 +1434,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>011648</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>博时港股通红利精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1644,6 +1472,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1880,290 +1992,6 @@
       </c>
       <c r="H6" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4460</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3027</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2647</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011647</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011648</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时港股通红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2026,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2238,26 +2066,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.37</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6598</t>
+          <t>1.8441</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2266,36 +2094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>87.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.8198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2304,36 +2132,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>86.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.4267</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2352,26 +2180,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3427</t>
+          <t>0.2025</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2380,36 +2208,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2698</t>
+          <t>0.1761</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2418,36 +2246,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>010204</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>中银港股通优势成长股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.85</t>
+          <t>69.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.1536</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2456,36 +2284,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2494,36 +2322,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2532,36 +2360,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011647</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2570,36 +2398,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011648</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2634,7 +2460,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2664,36 +2490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.23</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>85.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7527</t>
+          <t>0.8081</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2702,36 +2528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013991</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合A</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>85.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5313</t>
+          <t>0.8081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2740,32 +2566,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>87.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4655</t>
+          <t>0.6768</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2778,36 +2604,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4226</t>
+          <t>0.4451</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2816,36 +2642,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4226</t>
+          <t>0.2036</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2854,36 +2680,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013992</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>83.01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2188</t>
+          <t>0.1561</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2892,36 +2718,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>85.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1929</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2930,36 +2756,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>90.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2968,32 +2794,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3006,36 +2832,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3049,144 +2913,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.04</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.36</v>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.05</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.01</v>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>4.36</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.05</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.67</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>3.19</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,378 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.23</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7527</t>
+          <t>0.0805</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013991</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5313</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4655</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4226</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4226</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013992</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2188</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1929</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1102,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.37</t>
+          <t>65.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6598</t>
+          <t>2.7527</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1130,36 +805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.5313</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1168,36 +843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.4655</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1206,36 +881,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3427</t>
+          <t>0.4226</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1244,36 +919,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2698</t>
+          <t>0.4226</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1282,36 +957,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>013992</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>中欧港股通精选一年持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.85</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1320,36 +995,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.1929</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1358,36 +1033,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1396,36 +1071,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011647</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1434,36 +1109,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011648</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合C</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1472,6 +1147,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2433,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2907,7 +3018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01308-海丰国际.xlsx
+++ b/数据整理/stocks/港股/01308-海丰国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.36</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.05</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.67</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>3.19</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -703,442 +1288,6 @@
       </c>
       <c r="H2" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7527</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013991</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5313</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4655</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4226</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4226</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013992</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2188</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1929</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1213,26 +1362,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.37</t>
+          <t>65.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6598</t>
+          <t>2.7527</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1241,36 +1390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.5313</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1279,36 +1428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5144</t>
+          <t>0.4655</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1317,36 +1466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3427</t>
+          <t>0.4226</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1355,36 +1504,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2698</t>
+          <t>0.4226</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1393,36 +1542,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>013992</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>中欧港股通精选一年持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.85</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1431,36 +1580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.1929</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1469,36 +1618,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1507,36 +1656,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011647</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1545,36 +1694,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011648</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合C</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1583,6 +1732,442 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1866,7 +2451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2110,7 +2695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2544,7 +3129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3016,288 +3601,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4220</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2820</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1250</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>